--- a/CE_procesado.xlsx
+++ b/CE_procesado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50E981-616E-4762-A602-B6D11369ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A432F848-771F-4783-A77F-8D562A1E2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="3030" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="P92" sqref="P92"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,7 @@
         <v>91</v>
       </c>
       <c r="P27">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -3007,7 +3007,7 @@
         <v>98</v>
       </c>
       <c r="P34">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -4389,7 +4389,7 @@
         <v>120</v>
       </c>
       <c r="P56">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -4519,7 +4519,7 @@
         <v>122</v>
       </c>
       <c r="P58">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -4838,7 +4838,7 @@
         <v>127</v>
       </c>
       <c r="P63">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -6167,7 +6167,7 @@
         <v>148</v>
       </c>
       <c r="P84">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -6551,7 +6551,7 @@
         <v>154</v>
       </c>
       <c r="P90">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q90">
         <v>5</v>

--- a/CE_procesado.xlsx
+++ b/CE_procesado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A432F848-771F-4783-A77F-8D562A1E2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0E27D6-0F02-4C5E-99A9-3F895F031225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="3030" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="163">
   <si>
     <t>Eontema</t>
   </si>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="D94" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,9 +3437,6 @@
       <c r="K41">
         <v>10</v>
       </c>
-      <c r="L41" t="s">
-        <v>56</v>
-      </c>
       <c r="M41" t="s">
         <v>61</v>
       </c>

--- a/CE_procesado.xlsx
+++ b/CE_procesado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0E27D6-0F02-4C5E-99A9-3F895F031225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027CD2F5-5371-4012-BDF7-08C86801156B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="3030" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="163">
   <si>
     <t>Eontema</t>
   </si>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D94" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,9 +3564,6 @@
       <c r="K43">
         <v>10</v>
       </c>
-      <c r="L43" t="s">
-        <v>56</v>
-      </c>
       <c r="M43" t="s">
         <v>59</v>
       </c>
